--- a/pasta_input.xlsx
+++ b/pasta_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\github\pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C680F-F831-4CC8-9481-A39286D01B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC5C30-61F6-432F-8E45-00108B193EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{B609E244-91B8-4FAF-98D8-A0BCE274054A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>e</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>20.11.25</t>
+  </si>
+  <si>
+    <t>23.11.25</t>
+  </si>
+  <si>
+    <t>24.11.25</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E39E368-72E2-4A2A-AB8C-47D3B9090AB1}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -736,6 +742,40 @@
         <v>346</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>202</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
